--- a/문서/기획/Gaia 어플리케이션 기획-업적.xlsx
+++ b/문서/기획/Gaia 어플리케이션 기획-업적.xlsx
@@ -1,338 +1,441 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="10845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20985" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="업적 조건" sheetId="1" r:id="rId1"/>
+    <sheet name="업적 보상" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="115">
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>함께 산책가요(1)</t>
+  </si>
+  <si>
+    <t>자주색 치맛자락(1)</t>
+  </si>
+  <si>
+    <t>별이 피는 바람에(1)</t>
+  </si>
+  <si>
+    <t>홀씨 날리기 작전(1)</t>
+  </si>
+  <si>
+    <t>꽃과 친해지기(1)</t>
+  </si>
+  <si>
+    <t>노래들려주기 사용 수</t>
+  </si>
+  <si>
+    <t>노래들려주기 레벨업</t>
+  </si>
+  <si>
+    <t>로그인 일 수(누적)</t>
+  </si>
+  <si>
+    <t>4단계</t>
+  </si>
+  <si>
+    <t>2단계</t>
+  </si>
+  <si>
+    <t>10일</t>
+  </si>
+  <si>
+    <t>1일</t>
+  </si>
+  <si>
+    <t>9단계</t>
+  </si>
+  <si>
+    <t>업적명</t>
+  </si>
+  <si>
+    <t>3개</t>
+  </si>
+  <si>
+    <t>터치 수</t>
+  </si>
+  <si>
+    <t>5개</t>
+  </si>
+  <si>
+    <t>6단계</t>
+  </si>
+  <si>
+    <t>8단계</t>
+  </si>
+  <si>
+    <t>2일</t>
+  </si>
+  <si>
+    <t>4개</t>
+  </si>
+  <si>
+    <t>25일</t>
+  </si>
+  <si>
+    <t>35일</t>
+  </si>
+  <si>
+    <t>50일</t>
+  </si>
+  <si>
+    <t>15일</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>보상</t>
+  </si>
+  <si>
+    <t>7단계</t>
+  </si>
+  <si>
+    <t>업적 내용</t>
+  </si>
+  <si>
+    <t>광고 시청</t>
+  </si>
+  <si>
+    <t>11단계</t>
+  </si>
+  <si>
+    <t>5단계</t>
+  </si>
   <si>
     <t>업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일</t>
+  </si>
+  <si>
+    <t>3단계</t>
   </si>
   <si>
     <t>2개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단계</t>
+  </si>
+  <si>
+    <t>20일</t>
+  </si>
+  <si>
+    <t>아낌 없이 주는(1)</t>
   </si>
   <si>
     <t>민들레 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 구매(누적)</t>
+  </si>
+  <si>
+    <t>철쭉 레벨업</t>
+  </si>
+  <si>
+    <t>장미 레벨업</t>
+  </si>
+  <si>
+    <t>나팔꽃 레벨업</t>
+  </si>
+  <si>
+    <t>아이템 구매</t>
+  </si>
+  <si>
+    <t>아이템 사용</t>
+  </si>
+  <si>
+    <t>물주기 사용 수</t>
+  </si>
+  <si>
+    <t>드라이 꽃 만들기</t>
+  </si>
+  <si>
+    <t>쓰다듬기 사용 수</t>
+  </si>
+  <si>
+    <t>터치 레벨업</t>
+  </si>
+  <si>
+    <t>물주기 레벨업</t>
+  </si>
+  <si>
+    <t>쓰다듬기 레벨업</t>
+  </si>
+  <si>
+    <t>가지치기 레벨업</t>
+  </si>
+  <si>
+    <t>말하기 사용 수</t>
+  </si>
+  <si>
+    <t>가지치기 사용 수</t>
+  </si>
+  <si>
+    <t>꽃 향기가나(1)</t>
+  </si>
+  <si>
+    <t>말하기 레벨업</t>
   </si>
   <si>
     <t>호야 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나팔꽃 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철쭉 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장미 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불타는 액정(1)</t>
+  </si>
+  <si>
+    <t>꽃을 밖에 내놓기</t>
+  </si>
+  <si>
+    <t>3C700B</t>
+  </si>
+  <si>
+    <t>10C500B</t>
+  </si>
+  <si>
+    <t>32C000B</t>
+  </si>
+  <si>
+    <t>79C000B</t>
+  </si>
+  <si>
+    <t>185C000B</t>
+  </si>
+  <si>
+    <t>391C000B</t>
+  </si>
+  <si>
+    <t>2D750C</t>
+  </si>
+  <si>
+    <t>91D500C</t>
+  </si>
+  <si>
+    <t>777D777C</t>
+  </si>
+  <si>
+    <t>5E150D</t>
+  </si>
+  <si>
+    <t>누적 점수(씨앗)</t>
+  </si>
+  <si>
+    <t>15단계</t>
+  </si>
+  <si>
+    <t>13단계</t>
+  </si>
+  <si>
+    <t>70일</t>
+  </si>
+  <si>
+    <t>14단계</t>
+  </si>
+  <si>
+    <t>100일</t>
+  </si>
+  <si>
+    <t>12단계</t>
+  </si>
+  <si>
+    <t>진달래 아니에요(1)</t>
+  </si>
+  <si>
+    <t>영원히 보고싶어(1)</t>
+  </si>
+  <si>
+    <t>비나이다. 비나이다. 씨 뿌리기!(1)</t>
+  </si>
+  <si>
+    <t>25B</t>
+  </si>
+  <si>
+    <t>100B</t>
+  </si>
+  <si>
+    <t>500B</t>
+  </si>
+  <si>
+    <t>900C</t>
+  </si>
+  <si>
+    <t>15D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>24E</t>
+  </si>
+  <si>
+    <t>170E</t>
+  </si>
+  <si>
+    <t>16단계</t>
+  </si>
+  <si>
+    <t>20단계</t>
+  </si>
+  <si>
+    <t>17단계</t>
+  </si>
+  <si>
+    <t>19단계</t>
+  </si>
+  <si>
+    <t>18단계</t>
+  </si>
+  <si>
+    <t>상처받아도 난 몰라요(1)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 시청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰다듬기 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 일 수(누적)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 구매(누적)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라이 꽃 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰다듬기 사용 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물주기 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물주기 사용 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지치기 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지치기 사용 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말하기 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말하기 사용 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래들려주기 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노래들려주기 사용 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃과 친해지기(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃 향기가나(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀씨 날리기 작전(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별이 피는 바람에(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주색 치맛자락(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상처받아도 난 몰라요(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>대화가 필요해(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가수해도 되겠어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자 되세요(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>꼿꼿하게 핀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 허리에(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>새침한 똑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단발(1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 오려나.. 무릎이 쑤셔(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정한 소리꾼(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구름을 그릴게요(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어능력인증시험(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어멋! 지금 어딜 만져요!(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch My Body(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액정의 안부를 묻다(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>애청자(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불타는 액정(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함께 산책가요(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6단계</t>
-  </si>
-  <si>
-    <t>7단계</t>
-  </si>
-  <si>
-    <t>8단계</t>
-  </si>
-  <si>
-    <t>9단계</t>
-  </si>
-  <si>
-    <t>10단계</t>
-  </si>
-  <si>
-    <t>2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액정의 안부는 안녕하십니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11단계</t>
-  </si>
-  <si>
-    <t>12단계</t>
-  </si>
-  <si>
-    <t>70일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13단계</t>
-  </si>
-  <si>
-    <t>14단계</t>
-  </si>
-  <si>
-    <t>15단계</t>
-  </si>
-  <si>
-    <t>16단계</t>
-  </si>
-  <si>
-    <t>17단계</t>
-  </si>
-  <si>
-    <t>18단계</t>
-  </si>
-  <si>
-    <t>19단계</t>
-  </si>
-  <si>
-    <t>20단계</t>
-  </si>
-  <si>
-    <t>꽃을 밖에 내놓기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 보상은 일단 다 점수 1로 해서 넣어주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후에 아이템 부분 추가하면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거도 같이 생각해서 넣게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -431,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,8 +568,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,9 +583,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -487,44 +599,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -552,31 +664,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -604,23 +699,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,258 +710,2187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X29"/>
+  <dimension ref="A3:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4">
+        <v>200</v>
+      </c>
+      <c r="I7" s="4">
+        <v>250</v>
+      </c>
+      <c r="J7" s="4">
+        <v>300</v>
+      </c>
+      <c r="K7" s="4">
+        <v>350</v>
+      </c>
+      <c r="L7" s="4">
+        <v>400</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4">
+        <v>200</v>
+      </c>
+      <c r="I8" s="4">
+        <v>250</v>
+      </c>
+      <c r="J8" s="4">
+        <v>300</v>
+      </c>
+      <c r="K8" s="4">
+        <v>350</v>
+      </c>
+      <c r="L8" s="4">
+        <v>400</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4">
+        <v>250</v>
+      </c>
+      <c r="J9" s="4">
+        <v>300</v>
+      </c>
+      <c r="K9" s="4">
+        <v>350</v>
+      </c>
+      <c r="L9" s="4">
+        <v>400</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4">
+        <v>200</v>
+      </c>
+      <c r="I10" s="4">
+        <v>250</v>
+      </c>
+      <c r="J10" s="4">
+        <v>300</v>
+      </c>
+      <c r="K10" s="4">
+        <v>350</v>
+      </c>
+      <c r="L10" s="4">
+        <v>400</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4">
+        <v>200</v>
+      </c>
+      <c r="I11" s="4">
+        <v>250</v>
+      </c>
+      <c r="J11" s="4">
+        <v>300</v>
+      </c>
+      <c r="K11" s="4">
+        <v>350</v>
+      </c>
+      <c r="L11" s="4">
+        <v>400</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <v>13</v>
+      </c>
+      <c r="K12" s="4">
+        <v>21</v>
+      </c>
+      <c r="L12" s="4">
+        <v>34</v>
+      </c>
+      <c r="M12" s="4">
+        <v>55</v>
+      </c>
+      <c r="N12" s="4">
+        <v>89</v>
+      </c>
+      <c r="O12" s="4">
+        <v>144</v>
+      </c>
+      <c r="P12" s="4">
+        <v>233</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>377</v>
+      </c>
+      <c r="R12" s="4">
+        <v>610</v>
+      </c>
+      <c r="S12" s="4">
+        <v>987</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1597</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2584</v>
+      </c>
+      <c r="V12" s="4">
+        <v>4181</v>
+      </c>
+      <c r="W12" s="4">
+        <v>6765</v>
+      </c>
+      <c r="X12" s="4">
+        <v>10946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>300</v>
+      </c>
+      <c r="H13" s="4">
+        <v>400</v>
+      </c>
+      <c r="I13" s="4">
+        <v>500</v>
+      </c>
+      <c r="J13" s="4">
+        <v>600</v>
+      </c>
+      <c r="K13" s="4">
+        <v>700</v>
+      </c>
+      <c r="L13" s="4">
+        <v>800</v>
+      </c>
+      <c r="M13" s="4">
+        <v>900</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1100</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1200</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>250</v>
+      </c>
+      <c r="H14" s="4">
+        <v>700</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K14" s="4">
+        <v>30000</v>
+      </c>
+      <c r="L14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="4">
+        <v>185000</v>
+      </c>
+      <c r="N14" s="4">
+        <v>300000</v>
+      </c>
+      <c r="O14" s="4">
+        <v>450000</v>
+      </c>
+      <c r="P14" s="4">
+        <v>620000</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>830000</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1070000</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1590000</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1900000</v>
+      </c>
+      <c r="V14" s="4">
+        <v>2340000</v>
+      </c>
+      <c r="W14" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="X14" s="4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>11</v>
+      </c>
+      <c r="I16" s="4">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4">
+        <v>36</v>
+      </c>
+      <c r="K16" s="4">
+        <v>57</v>
+      </c>
+      <c r="L16" s="4">
+        <v>85</v>
+      </c>
+      <c r="M16" s="4">
+        <v>121</v>
+      </c>
+      <c r="N16" s="4">
+        <v>166</v>
+      </c>
+      <c r="O16" s="4">
+        <v>221</v>
+      </c>
+      <c r="P16" s="4">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>365</v>
+      </c>
+      <c r="R16" s="4">
+        <v>456</v>
+      </c>
+      <c r="S16" s="4">
+        <v>561</v>
+      </c>
+      <c r="T16" s="4">
+        <v>681</v>
+      </c>
+      <c r="U16" s="4">
+        <v>817</v>
+      </c>
+      <c r="V16" s="4">
+        <v>970</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1141</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4">
+        <v>91</v>
+      </c>
+      <c r="K17" s="4">
+        <v>140</v>
+      </c>
+      <c r="L17" s="4">
+        <v>204</v>
+      </c>
+      <c r="M17" s="4">
+        <v>285</v>
+      </c>
+      <c r="N17" s="4">
+        <v>385</v>
+      </c>
+      <c r="O17" s="4">
+        <v>506</v>
+      </c>
+      <c r="P17" s="4">
+        <v>650</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>819</v>
+      </c>
+      <c r="R17" s="4">
+        <v>983</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1208</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1464</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1753</v>
+      </c>
+      <c r="V17" s="4">
+        <v>2077</v>
+      </c>
+      <c r="W17" s="4">
+        <v>2438</v>
+      </c>
+      <c r="X17" s="4">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4">
+        <v>30</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <v>15</v>
+      </c>
+      <c r="K20" s="4">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4">
+        <v>25</v>
+      </c>
+      <c r="K21" s="4">
+        <v>40</v>
+      </c>
+      <c r="L21" s="4">
+        <v>60</v>
+      </c>
+      <c r="M21" s="4">
+        <v>88</v>
+      </c>
+      <c r="N21" s="4">
+        <v>120</v>
+      </c>
+      <c r="O21" s="4">
+        <v>155</v>
+      </c>
+      <c r="P21" s="4">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>235</v>
+      </c>
+      <c r="R21" s="4">
+        <v>288</v>
+      </c>
+      <c r="S21" s="4">
+        <v>349</v>
+      </c>
+      <c r="T21" s="4">
+        <v>415</v>
+      </c>
+      <c r="U21" s="4">
+        <v>488</v>
+      </c>
+      <c r="V21" s="4">
+        <v>567</v>
+      </c>
+      <c r="W21" s="4">
+        <v>658</v>
+      </c>
+      <c r="X21" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4">
+        <v>30</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15</v>
+      </c>
+      <c r="J23" s="4">
+        <v>25</v>
+      </c>
+      <c r="K23" s="4">
+        <v>40</v>
+      </c>
+      <c r="L23" s="4">
+        <v>60</v>
+      </c>
+      <c r="M23" s="4">
+        <v>88</v>
+      </c>
+      <c r="N23" s="4">
+        <v>120</v>
+      </c>
+      <c r="O23" s="4">
+        <v>155</v>
+      </c>
+      <c r="P23" s="4">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>235</v>
+      </c>
+      <c r="R23" s="4">
+        <v>288</v>
+      </c>
+      <c r="S23" s="4">
+        <v>349</v>
+      </c>
+      <c r="T23" s="4">
+        <v>415</v>
+      </c>
+      <c r="U23" s="4">
+        <v>488</v>
+      </c>
+      <c r="V23" s="4">
+        <v>567</v>
+      </c>
+      <c r="W23" s="4">
+        <v>658</v>
+      </c>
+      <c r="X23" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4">
+        <v>20</v>
+      </c>
+      <c r="L24" s="4">
+        <v>30</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4">
+        <v>25</v>
+      </c>
+      <c r="K25" s="4">
+        <v>40</v>
+      </c>
+      <c r="L25" s="4">
+        <v>60</v>
+      </c>
+      <c r="M25" s="4">
+        <v>88</v>
+      </c>
+      <c r="N25" s="4">
+        <v>120</v>
+      </c>
+      <c r="O25" s="4">
+        <v>155</v>
+      </c>
+      <c r="P25" s="4">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>235</v>
+      </c>
+      <c r="R25" s="4">
+        <v>288</v>
+      </c>
+      <c r="S25" s="4">
+        <v>349</v>
+      </c>
+      <c r="T25" s="4">
+        <v>415</v>
+      </c>
+      <c r="U25" s="4">
+        <v>488</v>
+      </c>
+      <c r="V25" s="4">
+        <v>567</v>
+      </c>
+      <c r="W25" s="4">
+        <v>658</v>
+      </c>
+      <c r="X25" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4">
+        <v>30</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>8</v>
+      </c>
+      <c r="I27" s="4">
+        <v>15</v>
+      </c>
+      <c r="J27" s="4">
+        <v>25</v>
+      </c>
+      <c r="K27" s="4">
+        <v>40</v>
+      </c>
+      <c r="L27" s="4">
+        <v>60</v>
+      </c>
+      <c r="M27" s="4">
+        <v>88</v>
+      </c>
+      <c r="N27" s="4">
+        <v>120</v>
+      </c>
+      <c r="O27" s="4">
+        <v>155</v>
+      </c>
+      <c r="P27" s="4">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>235</v>
+      </c>
+      <c r="R27" s="4">
+        <v>288</v>
+      </c>
+      <c r="S27" s="4">
+        <v>349</v>
+      </c>
+      <c r="T27" s="4">
+        <v>415</v>
+      </c>
+      <c r="U27" s="4">
+        <v>488</v>
+      </c>
+      <c r="V27" s="4">
+        <v>567</v>
+      </c>
+      <c r="W27" s="4">
+        <v>658</v>
+      </c>
+      <c r="X27" s="4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15</v>
+      </c>
+      <c r="K28" s="4">
+        <v>20</v>
+      </c>
+      <c r="L28" s="4">
+        <v>30</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4">
+        <v>15</v>
+      </c>
+      <c r="J29" s="4">
+        <v>25</v>
+      </c>
+      <c r="K29" s="4">
+        <v>40</v>
+      </c>
+      <c r="L29" s="4">
+        <v>60</v>
+      </c>
+      <c r="M29" s="4">
+        <v>88</v>
+      </c>
+      <c r="N29" s="4">
+        <v>120</v>
+      </c>
+      <c r="O29" s="4">
+        <v>155</v>
+      </c>
+      <c r="P29" s="4">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>235</v>
+      </c>
+      <c r="R29" s="4">
+        <v>288</v>
+      </c>
+      <c r="S29" s="4">
+        <v>349</v>
+      </c>
+      <c r="T29" s="4">
+        <v>415</v>
+      </c>
+      <c r="U29" s="4">
+        <v>488</v>
+      </c>
+      <c r="V29" s="4">
+        <v>567</v>
+      </c>
+      <c r="W29" s="4">
+        <v>658</v>
+      </c>
+      <c r="X29" s="4">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:X3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>75</v>
+      <c r="T4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -891,73 +2898,73 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -965,73 +2972,73 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -1039,10 +3046,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>50</v>
@@ -1069,40 +3076,40 @@
         <v>400</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -1110,10 +3117,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
@@ -1140,40 +3147,40 @@
         <v>400</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -1181,10 +3188,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4">
         <v>50</v>
@@ -1211,49 +3218,51 @@
         <v>400</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
@@ -1280,40 +3289,40 @@
         <v>400</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -1321,10 +3330,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -1351,51 +3360,51 @@
         <v>400</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+      <c r="B12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1462,11 +3471,11 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>100</v>
@@ -1505,28 +3514,28 @@
         <v>1200</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1534,10 +3543,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>50</v>
@@ -1605,79 +3614,81 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1744,9 +3755,11 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1813,38 +3826,82 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1877,43 +3934,45 @@
         <v>30</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -1940,49 +3999,51 @@
         <v>30</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2049,9 +4110,11 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2078,49 +4141,51 @@
         <v>30</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2187,9 +4252,11 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2216,49 +4283,51 @@
         <v>30</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2325,9 +4394,11 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2354,49 +4425,51 @@
         <v>30</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2463,9 +4536,11 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2492,49 +4567,51 @@
         <v>30</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2595,13 +4672,28 @@
       </c>
       <c r="X29" s="4">
         <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:X3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
